--- a/# 연습/파이널프로잭트/증가율계산.xlsx
+++ b/# 연습/파이널프로잭트/증가율계산.xlsx
@@ -8,13 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamin\Mega_Data_Analysis\# 연습\파이널프로잭트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9FF3AD9-411A-4316-A2D7-2E14DCFE870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D8426D-2EB1-41DF-B149-9E7A632BDCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{D7125F78-AB4E-45D7-ACF9-FB487F366015}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7125F78-AB4E-45D7-ACF9-FB487F366015}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$A$2:$A$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,25 +51,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>면적(평방미터)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기존</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가폭</t>
+    <t>+ 221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ 330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면적(m^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커버리지 증가폭(m^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커버리지 한계 증가 폭 (m^2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,12 +168,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,318 +495,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9D47B6-360C-45A8-AB83-4DE85DE12666}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="C3:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" customWidth="1"/>
+    <col min="3" max="3" width="27.796875" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4" s="2">
+        <v>348244</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>466476</v>
+      </c>
+      <c r="E5" s="2">
+        <f>D5-$D$4</f>
+        <v>118232</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D6" s="2">
+        <v>471446</v>
+      </c>
+      <c r="E6" s="2">
+        <f>D6-$D$4</f>
+        <v>123202</v>
+      </c>
+      <c r="F6" s="2">
+        <f>E6-E5</f>
+        <v>4970</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>348244</v>
-      </c>
-      <c r="C2">
-        <f>B2/$A$15</f>
-        <v>3.5140665993945511E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>221</v>
-      </c>
-      <c r="B3">
-        <v>466476</v>
-      </c>
-      <c r="C3">
-        <f>B3/$A$15</f>
-        <v>4.7071241170534815E-2</v>
-      </c>
-      <c r="D3">
-        <f>C3-C2</f>
-        <v>1.1930575176589304E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>230</v>
-      </c>
-      <c r="B4">
-        <v>471446</v>
-      </c>
-      <c r="C4">
-        <f>B4/$A$15</f>
-        <v>4.7572754793138244E-2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D14" si="0">C4-C3</f>
-        <v>5.0151362260342919E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>240</v>
-      </c>
-      <c r="B5">
+      <c r="D7" s="2">
         <v>476714</v>
       </c>
-      <c r="C5">
-        <f>B5/$A$15</f>
-        <v>4.810433905146317E-2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>5.3158425832492556E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>250</v>
-      </c>
-      <c r="B6">
-        <f>133648+B2</f>
+      <c r="E7" s="2">
+        <f>D7-$D$4</f>
+        <v>128470</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F16" si="0">E7-E6</f>
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <f>133648+D4</f>
         <v>481892</v>
       </c>
-      <c r="C6">
-        <f>B6/$A$15</f>
-        <v>4.8626841574167509E-2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5.2250252270433922E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>260</v>
-      </c>
-      <c r="B7">
-        <f>138584+B2</f>
+      <c r="E8" s="2">
+        <f>D8-$D$4</f>
+        <v>133648</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <f>138584+D4</f>
         <v>486828</v>
       </c>
-      <c r="C7">
-        <f>B7/$A$15</f>
-        <v>4.9124924318869827E-2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4.9808274470231756E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>270</v>
-      </c>
-      <c r="B8">
-        <f>144077+B2</f>
+      <c r="E9" s="2">
+        <f>D9-$D$4</f>
+        <v>138584</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <f>144077+D4</f>
         <v>492321</v>
       </c>
-      <c r="C8">
-        <f>B8/$A$15</f>
-        <v>4.9679212916246218E-2</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5.5428859737639141E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>280</v>
-      </c>
-      <c r="B9">
-        <f>149302+B2</f>
+      <c r="E10" s="2">
+        <f>D10-$D$4</f>
+        <v>144077</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f>149302+D4</f>
         <v>497546</v>
       </c>
-      <c r="C9">
-        <f>B9/$A$15</f>
-        <v>5.0206458123107971E-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>5.2724520686175252E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>290</v>
-      </c>
-      <c r="B10">
-        <f>154453+B2</f>
+      <c r="E11" s="2">
+        <f>D11-$D$4</f>
+        <v>149302</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <f>154453+D4</f>
         <v>502697</v>
       </c>
-      <c r="C10">
-        <f>B10/$A$15</f>
-        <v>5.0726236125126133E-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5.1977800201816193E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>300</v>
-      </c>
-      <c r="B11">
-        <f>159773+B2</f>
+      <c r="E12" s="2">
+        <f>D12-$D$4</f>
+        <v>154453</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <f>159773+D4</f>
         <v>508017</v>
       </c>
-      <c r="C11">
-        <f>B11/$A$15</f>
-        <v>5.1263067608476286E-2</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5.3683148335015307E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>310</v>
-      </c>
-      <c r="B12">
-        <f>164780+B2</f>
+      <c r="E13" s="2">
+        <f>D13-$D$4</f>
+        <v>159773</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2">
+        <f>164780+D4</f>
         <v>513024</v>
       </c>
-      <c r="C12">
-        <f>B12/$A$15</f>
-        <v>5.1768314833501514E-2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>5.0524722502522795E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>320</v>
-      </c>
-      <c r="B13">
-        <f>170303+B2</f>
+      <c r="E14" s="2">
+        <f>D14-$D$4</f>
+        <v>164780</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <f>170303+D4</f>
         <v>518547</v>
       </c>
-      <c r="C13">
-        <f>B13/$A$15</f>
-        <v>5.2325630676084763E-2</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>5.573158425832489E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>330</v>
-      </c>
-      <c r="B14">
-        <f>175320+B2</f>
+      <c r="E15" s="2">
+        <f>D15-$D$4</f>
+        <v>170303</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <f>175320+D4</f>
         <v>523564</v>
       </c>
-      <c r="C14">
-        <f>B14/$A$15</f>
-        <v>5.2831886982845612E-2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5.0625630676084943E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
-        <v>9910000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <f>B3-B2</f>
-        <v>118232</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17">
-        <f>B4-B3</f>
-        <v>4970</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18">
-        <f>B5-B4</f>
-        <v>5268</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19">
-        <f>B6-B5</f>
-        <v>5178</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <f>B7-B6</f>
-        <v>4936</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <f>B8-B7</f>
-        <v>5493</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22">
-        <f>B9-B8</f>
-        <v>5225</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23">
-        <f>B10-B9</f>
-        <v>5151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <f>B11-B10</f>
-        <v>5320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <f>B12-B11</f>
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <f>B13-B12</f>
-        <v>5523</v>
+      <c r="E16" s="2">
+        <f>D16-$D$4</f>
+        <v>175320</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>5017</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>